--- a/AAII_Financials/Quarterly/VIRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>VIRX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -727,22 +731,25 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +887,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>84500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,37 +964,41 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E17" s="3">
         <v>5700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,28 +1006,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,28 +1052,31 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1058,28 +1095,31 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-5900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1094,39 +1134,45 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,57 +1436,63 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,66 +1619,73 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>129200</v>
+      </c>
+      <c r="E41" s="3">
         <v>20400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3">
         <v>3400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>16400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>13100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2400</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,66 +1745,75 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>7700</v>
       </c>
       <c r="J45" s="3">
         <v>7700</v>
       </c>
       <c r="K45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>132300</v>
+      </c>
+      <c r="E46" s="3">
         <v>22100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>27600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>24900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>30700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>36300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>40500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>19800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,37 +1841,43 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,19 +1969,22 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>136200</v>
+      </c>
+      <c r="E54" s="3">
         <v>23200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>31500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>37200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>41600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>21000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,48 +2095,52 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>800</v>
       </c>
       <c r="I57" s="3">
         <v>800</v>
       </c>
       <c r="J57" s="3">
+        <v>800</v>
+      </c>
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>5500</v>
@@ -2021,73 +2155,82 @@
         <v>5500</v>
       </c>
       <c r="K58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L58" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E60" s="3">
         <v>3300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2110,13 +2253,16 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2125,22 +2271,25 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3600</v>
-      </c>
-      <c r="F66" s="3">
-        <v>9400</v>
       </c>
       <c r="G66" s="3">
         <v>9400</v>
       </c>
       <c r="H66" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I66" s="3">
         <v>9700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>9300</v>
       </c>
       <c r="J66" s="3">
         <v>9300</v>
       </c>
       <c r="K66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="L66" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2338,7 +2506,7 @@
         <v>5500</v>
       </c>
       <c r="F70" s="3">
-        <v>11800</v>
+        <v>5500</v>
       </c>
       <c r="G70" s="3">
         <v>11800</v>
@@ -2350,13 +2518,16 @@
         <v>11800</v>
       </c>
       <c r="J70" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K70" s="3">
         <v>7100</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-130100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-704400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-699600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-695000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-688600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-682800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-677500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-671600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-665300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>119300</v>
+      </c>
+      <c r="E76" s="3">
         <v>14400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,13 +2832,14 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>4</v>
@@ -2654,8 +2853,8 @@
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>17100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>3500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>13000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,20 +3338,23 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>62400</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>7100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -3116,16 +3362,19 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>26100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>VIRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,71 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -734,22 +738,25 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +787,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E12" s="3">
         <v>4000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,17 +907,20 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E14" s="3">
         <v>84500</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -916,14 +936,17 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E17" s="3">
         <v>78800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,40 +1076,44 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1098,17 +1135,20 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-5900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1116,13 +1156,13 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1137,42 +1177,48 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-79200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-79200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-79200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-79200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-79200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1706,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>122700</v>
+      </c>
+      <c r="E41" s="3">
         <v>129200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>20400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>26000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1663,29 +1753,32 @@
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3">
         <v>3400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>16400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>13100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2400</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,72 +1844,81 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>7700</v>
       </c>
       <c r="K45" s="3">
         <v>7700</v>
       </c>
       <c r="L45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="M45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>125100</v>
+      </c>
+      <c r="E46" s="3">
         <v>132300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>22100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>27600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>24900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>30700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>36300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>40500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,40 +1949,46 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,22 +2089,25 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>128700</v>
+      </c>
+      <c r="E54" s="3">
         <v>136200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>23200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>31500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>37200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>41600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,54 +2226,58 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>800</v>
       </c>
       <c r="J57" s="3">
         <v>800</v>
       </c>
       <c r="K57" s="3">
+        <v>800</v>
+      </c>
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>5500</v>
@@ -2158,83 +2292,92 @@
         <v>5500</v>
       </c>
       <c r="L58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="M58" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E59" s="3">
         <v>4100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E61" s="3">
         <v>4600</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2256,17 +2399,20 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
@@ -2274,22 +2420,25 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E66" s="3">
         <v>11500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3600</v>
-      </c>
-      <c r="G66" s="3">
-        <v>9400</v>
       </c>
       <c r="H66" s="3">
         <v>9400</v>
       </c>
       <c r="I66" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J66" s="3">
         <v>9700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>9300</v>
       </c>
       <c r="K66" s="3">
         <v>9300</v>
       </c>
       <c r="L66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="M66" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2509,7 +2677,7 @@
         <v>5500</v>
       </c>
       <c r="G70" s="3">
-        <v>11800</v>
+        <v>5500</v>
       </c>
       <c r="H70" s="3">
         <v>11800</v>
@@ -2521,13 +2689,16 @@
         <v>11800</v>
       </c>
       <c r="K70" s="3">
+        <v>11800</v>
+      </c>
+      <c r="L70" s="3">
         <v>7100</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-139300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-130100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-704400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-699600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-695000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-688600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-682800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-677500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-671600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-665300</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>111600</v>
+      </c>
+      <c r="E76" s="3">
         <v>119300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-79200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,16 +3031,17 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -2856,8 +3055,8 @@
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E89" s="3">
         <v>2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>17100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>3500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>13000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,23 +3584,26 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>62400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>7100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -3365,16 +3611,19 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>26100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3654,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E102" s="3">
         <v>82100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>VIRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -731,8 +735,8 @@
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -741,22 +745,25 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E12" s="3">
         <v>5400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,20 +927,23 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>84500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -939,14 +959,17 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,43 +1018,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E17" s="3">
         <v>9100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>78800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1038,32 +1068,35 @@
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1088,32 +1122,35 @@
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1138,17 +1175,20 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-5900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1159,13 +1199,13 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1180,45 +1220,51 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-79200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-79200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-79200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1508,67 +1578,73 @@
       <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-79200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-79200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E41" s="3">
         <v>122700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>129200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>26000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1756,29 +1846,32 @@
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3">
         <v>3400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>16400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2400</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,78 +1943,87 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>7700</v>
       </c>
       <c r="L45" s="3">
         <v>7700</v>
       </c>
       <c r="M45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E46" s="3">
         <v>125100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>132300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>22100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>27600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>24900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>30700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>36300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>40500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,43 +2057,49 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,25 +2209,28 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>116500</v>
+      </c>
+      <c r="E54" s="3">
         <v>128700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>136200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>23200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>31500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>37200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,60 +2357,64 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>800</v>
       </c>
       <c r="K57" s="3">
         <v>800</v>
       </c>
       <c r="L57" s="3">
+        <v>800</v>
+      </c>
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>5500</v>
@@ -2295,92 +2429,101 @@
         <v>5500</v>
       </c>
       <c r="M58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="N58" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E59" s="3">
         <v>3600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E60" s="3">
         <v>7000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2402,20 +2545,23 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
@@ -2423,22 +2569,25 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E66" s="3">
         <v>11600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>9400</v>
       </c>
       <c r="I66" s="3">
         <v>9400</v>
       </c>
       <c r="J66" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K66" s="3">
         <v>9700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>9300</v>
       </c>
       <c r="L66" s="3">
         <v>9300</v>
       </c>
       <c r="M66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="N66" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2680,7 +2848,7 @@
         <v>5500</v>
       </c>
       <c r="H70" s="3">
-        <v>11800</v>
+        <v>5500</v>
       </c>
       <c r="I70" s="3">
         <v>11800</v>
@@ -2692,13 +2860,16 @@
         <v>11800</v>
       </c>
       <c r="L70" s="3">
+        <v>11800</v>
+      </c>
+      <c r="M70" s="3">
         <v>7100</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-154200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-139300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-130100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-704400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-699600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-695000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-688600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-682800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-677500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-671600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-665300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E76" s="3">
         <v>111600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>119300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-79200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3041,10 +3240,10 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -3058,8 +3257,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,31 +3512,32 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-4200</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>17100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>3500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>13000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3830,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3596,17 +3842,17 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>62400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>7100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -3614,16 +3860,19 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>26100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>82100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>VIRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,74 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -738,32 +745,38 @@
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +813,14 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +879,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F12" s="3">
         <v>7100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>5400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>2200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>4300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>4900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>3500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,26 +963,32 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>4000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>84500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -962,14 +1001,20 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,46 +1070,54 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F17" s="3">
         <v>14800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>9100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>78800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1071,32 +1130,38 @@
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>-5700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-4500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-6300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-6200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1125,32 +1192,38 @@
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>200</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1178,17 +1251,23 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-5900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-6100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1202,16 +1281,16 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1223,48 +1302,60 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-14900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-9200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-79200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-6400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-6200</v>
       </c>
       <c r="N23" s="3">
         <v>-5900</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-5900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-14900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-9200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-79200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-6400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-6200</v>
       </c>
       <c r="N26" s="3">
         <v>-5900</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-5900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-14900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-9200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-79200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-6400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-6200</v>
       </c>
       <c r="N27" s="3">
         <v>-5900</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-5900</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1581,70 +1720,82 @@
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-14900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-9200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-79200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-6400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-6200</v>
       </c>
       <c r="N33" s="3">
         <v>-5900</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-5900</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-14900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-9200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-79200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-6400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-6200</v>
       </c>
       <c r="N35" s="3">
         <v>-5900</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-5900</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,84 +1965,98 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>103600</v>
+      </c>
+      <c r="F41" s="3">
         <v>111000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>122700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>129200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>20400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>26000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>17700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>20000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>12800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>19700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>9800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3">
         <v>3400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>16400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>13100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>2400</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,84 +2137,102 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>7200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>7300</v>
       </c>
       <c r="K45" s="3">
         <v>7200</v>
       </c>
       <c r="L45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="M45" s="3">
+        <v>7200</v>
+      </c>
+      <c r="N45" s="3">
         <v>7700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>7700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>95400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>105300</v>
+      </c>
+      <c r="F46" s="3">
         <v>113000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>125100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>132300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>22100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>27600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>24900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>30700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>36300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>40500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>19800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,46 +2269,58 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E48" s="3">
         <v>900</v>
       </c>
       <c r="F48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>900</v>
+      </c>
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,31 +2445,37 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F52" s="3">
         <v>2500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
-      </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>100</v>
+      </c>
+      <c r="P52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>108600</v>
+      </c>
+      <c r="F54" s="3">
         <v>116500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>128700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>136200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>23200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>28000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>25500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>31500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>37200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>41600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>21000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,69 +2617,77 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>500</v>
+      </c>
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>5500</v>
@@ -2432,104 +2699,122 @@
         <v>5500</v>
       </c>
       <c r="N58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="O58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="P58" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F59" s="3">
         <v>5100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F60" s="3">
         <v>7200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>9400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>9300</v>
       </c>
       <c r="K60" s="3">
         <v>9400</v>
       </c>
       <c r="L60" s="3">
+        <v>9300</v>
+      </c>
+      <c r="M60" s="3">
+        <v>9400</v>
+      </c>
+      <c r="N60" s="3">
         <v>8900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>8700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F61" s="3">
         <v>5000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2548,46 +2833,58 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F66" s="3">
         <v>12600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>11500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2851,10 +3186,10 @@
         <v>5500</v>
       </c>
       <c r="I70" s="3">
-        <v>11800</v>
+        <v>5500</v>
       </c>
       <c r="J70" s="3">
-        <v>11800</v>
+        <v>5500</v>
       </c>
       <c r="K70" s="3">
         <v>11800</v>
@@ -2863,13 +3198,19 @@
         <v>11800</v>
       </c>
       <c r="M70" s="3">
+        <v>11800</v>
+      </c>
+      <c r="N70" s="3">
+        <v>11800</v>
+      </c>
+      <c r="O70" s="3">
         <v>7100</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-176200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-165700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-154200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-139300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-130100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-704400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-699600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-695000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-688600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-682800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-677500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-671600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-665300</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>88900</v>
+      </c>
+      <c r="F76" s="3">
         <v>98500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>111600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>119300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>14400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>18900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>15800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>20500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-14900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-9200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-79200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-6400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-6200</v>
       </c>
       <c r="N81" s="3">
         <v>-5900</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-5900</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3243,13 +3640,13 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -3260,17 +3657,23 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-6600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-5700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-5800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-5700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-5400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-6900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,20 +3952,22 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
@@ -3539,11 +3980,11 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>17100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>3500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>13000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-10700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4318,58 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>62400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>7100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>26100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-11700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-6500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>82100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-5600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>7200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-7000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>9900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-9500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>11100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>VIRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,8 +755,8 @@
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -761,22 +765,25 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E12" s="3">
         <v>6100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,17 +1001,17 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>4000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>84500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1007,14 +1027,17 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1098,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E17" s="3">
         <v>10400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>78800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1136,32 +1166,35 @@
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>-5700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1198,32 +1232,35 @@
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1257,17 +1294,20 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-5900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1287,13 +1327,13 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1308,54 +1348,60 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-79200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-79200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-79200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1726,76 +1796,82 @@
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-79200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-79200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,96 +2053,103 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E41" s="3">
         <v>92200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>103600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>111000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>122700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>129200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>20400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>26000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L42" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3">
         <v>3400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2400</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,87 +2251,93 @@
         <v>3200</v>
       </c>
       <c r="E45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>7700</v>
       </c>
       <c r="O45" s="3">
         <v>7700</v>
       </c>
       <c r="P45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>86400</v>
+      </c>
+      <c r="E46" s="3">
         <v>95400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>105300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>113000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>125100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>132300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>22100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>27600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>36300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>40500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2380,58 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,34 +2568,37 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>89200</v>
+      </c>
+      <c r="E54" s="3">
         <v>98400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>108600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>116500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>128700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>136200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>41600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,78 +2749,82 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>800</v>
       </c>
       <c r="N57" s="3">
         <v>800</v>
       </c>
       <c r="O57" s="3">
+        <v>800</v>
+      </c>
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>5500</v>
@@ -2705,119 +2839,128 @@
         <v>5500</v>
       </c>
       <c r="P58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E59" s="3">
         <v>4500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E60" s="3">
         <v>7800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="E61" s="3">
         <v>4800</v>
       </c>
       <c r="F61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G61" s="3">
         <v>5000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2839,29 +2982,32 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
@@ -2869,22 +3015,25 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E66" s="3">
         <v>12800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3600</v>
-      </c>
-      <c r="K66" s="3">
-        <v>9400</v>
       </c>
       <c r="L66" s="3">
         <v>9400</v>
       </c>
       <c r="M66" s="3">
+        <v>9400</v>
+      </c>
+      <c r="N66" s="3">
         <v>9700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>9300</v>
       </c>
       <c r="O66" s="3">
         <v>9300</v>
       </c>
       <c r="P66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="Q66" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3192,7 +3360,7 @@
         <v>5500</v>
       </c>
       <c r="K70" s="3">
-        <v>11800</v>
+        <v>5500</v>
       </c>
       <c r="L70" s="3">
         <v>11800</v>
@@ -3204,13 +3372,16 @@
         <v>11800</v>
       </c>
       <c r="O70" s="3">
+        <v>11800</v>
+      </c>
+      <c r="P70" s="3">
         <v>7100</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-186800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-176200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-165700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-154200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-139300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-130100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-704400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-699600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-695000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-688600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-682800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-677500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-671600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-665300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E76" s="3">
         <v>80200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>88900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>98500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>111600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>119300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-79200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3646,10 +3845,10 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -3663,8 +3862,8 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,23 +4174,24 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
@@ -3986,8 +4207,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-4200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>17100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>3500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>13000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2400</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,26 +4579,26 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>62400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>7100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4360,16 +4606,19 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>26100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>82100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>VIRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,8 +762,8 @@
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -768,22 +772,25 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E12" s="3">
         <v>6300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1004,17 +1024,17 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>84500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1030,14 +1050,17 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1125,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E17" s="3">
         <v>10500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>78800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1169,32 +1199,35 @@
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-5700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1235,32 +1269,35 @@
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1297,17 +1334,20 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-5900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1330,13 +1370,13 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1351,57 +1391,63 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-79200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-79200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-79200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1799,79 +1869,85 @@
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-79200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-79200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,64 +2140,68 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E41" s="3">
         <v>81600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>92200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>103600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>111000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>122700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>129200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>20400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E42" s="3">
         <v>1600</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2127,29 +2217,32 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3">
         <v>3400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2400</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,102 +2338,111 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="E45" s="3">
         <v>3200</v>
       </c>
       <c r="F45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>7700</v>
       </c>
       <c r="P45" s="3">
         <v>7700</v>
       </c>
       <c r="Q45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="R45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E46" s="3">
         <v>86400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>95400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>105300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>113000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>125100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>132300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>22100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>36300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>40500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,55 +2488,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,37 +2688,40 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>82200</v>
+      </c>
+      <c r="E54" s="3">
         <v>89200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>98400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>108600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>116500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>128700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>136200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>41600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2880,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
-      </c>
-      <c r="N57" s="3">
-        <v>800</v>
       </c>
       <c r="O57" s="3">
         <v>800</v>
       </c>
       <c r="P57" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2808,26 +2942,26 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>5500</v>
@@ -2842,104 +2976,113 @@
         <v>5500</v>
       </c>
       <c r="Q58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="R58" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E59" s="3">
         <v>5400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E60" s="3">
         <v>7200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2947,23 +3090,23 @@
         <v>4900</v>
       </c>
       <c r="E61" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F61" s="3">
         <v>4800</v>
       </c>
       <c r="G61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H61" s="3">
         <v>5000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2994,23 +3140,23 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
@@ -3018,22 +3164,25 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E66" s="3">
         <v>12200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>9400</v>
       </c>
       <c r="M66" s="3">
         <v>9400</v>
       </c>
       <c r="N66" s="3">
+        <v>9400</v>
+      </c>
+      <c r="O66" s="3">
         <v>9700</v>
-      </c>
-      <c r="O66" s="3">
-        <v>9300</v>
       </c>
       <c r="P66" s="3">
         <v>9300</v>
       </c>
       <c r="Q66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="R66" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3363,7 +3531,7 @@
         <v>5500</v>
       </c>
       <c r="L70" s="3">
-        <v>11800</v>
+        <v>5500</v>
       </c>
       <c r="M70" s="3">
         <v>11800</v>
@@ -3375,13 +3543,16 @@
         <v>11800</v>
       </c>
       <c r="P70" s="3">
+        <v>11800</v>
+      </c>
+      <c r="Q70" s="3">
         <v>7100</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-204500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-186800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-176200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-165700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-154200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-139300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-130100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-704400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-699600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-695000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-688600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-682800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-677500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-671600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-665300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E76" s="3">
         <v>71600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>80200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>88900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>98500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>111600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>119300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-79200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,13 +4025,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -3848,10 +4047,10 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -3865,8 +4064,8 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,26 +4395,27 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4210,8 +4431,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1600</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-4200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>17100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>3500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>13000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,38 +4813,41 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>62400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>7100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4609,16 +4855,19 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>26100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>82100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>VIRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,89 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,32 +772,38 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +852,14 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +908,14 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +934,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F12" s="3">
         <v>7100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>6300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>6100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>7300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>7100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>5400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>4000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>2100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>2200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>4300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>3700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>4900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>3500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>3700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,13 +1042,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1027,20 +1066,20 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>4000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>84500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1053,14 +1092,20 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,58 +1177,66 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F17" s="3">
         <v>18100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>10500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>10400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>11300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>14800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>78800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>7400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>6200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1202,32 +1261,38 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-5700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-4500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-6300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-5300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-6200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1272,32 +1339,38 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
       <c r="R20" s="3">
+        <v>200</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1337,25 +1410,31 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-6100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1373,16 +1452,16 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1394,60 +1473,72 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-17700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-10600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-10500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-11400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-14900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-9200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-79200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-6400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-5300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-6200</v>
       </c>
       <c r="R23" s="3">
         <v>-5900</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-5900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-17700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-10600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-10500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-11400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-14900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-9200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-79200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-5300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-6200</v>
       </c>
       <c r="R26" s="3">
         <v>-5900</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-5900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-17700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-10600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-10500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-11400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-14900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-9200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-79200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-4600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-5800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-5300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-6200</v>
       </c>
       <c r="R27" s="3">
         <v>-5900</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-5900</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1872,82 +2011,94 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
       <c r="R32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-17700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-10600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-10500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-11400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-14900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-9200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-79200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-5800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-5300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-6200</v>
       </c>
       <c r="R33" s="3">
         <v>-5900</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-5900</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-17700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-10600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-10500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-11400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-14900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-9200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-79200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-5800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-5300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-6200</v>
       </c>
       <c r="R35" s="3">
         <v>-5900</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-5900</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,73 +2312,81 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>36800</v>
+      </c>
+      <c r="F41" s="3">
         <v>23500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>81600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>92200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>103600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>111000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>122700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>129200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>20400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>26000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>17700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>20000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>12800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>19700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>9800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>54300</v>
+      </c>
+      <c r="F42" s="3">
         <v>53600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1600</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2220,52 +2399,58 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3">
         <v>3400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>16400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>13100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>2400</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2291,8 +2476,14 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,108 +2532,126 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1600</v>
-      </c>
-      <c r="M45" s="3">
-        <v>7200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>7300</v>
       </c>
       <c r="O45" s="3">
         <v>7200</v>
       </c>
       <c r="P45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>7200</v>
+      </c>
+      <c r="R45" s="3">
         <v>7700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>7700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>93700</v>
+      </c>
+      <c r="F46" s="3">
         <v>79700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>86400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>95400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>105300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>113000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>125100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>132300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>22100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>27600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>24900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>30700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>36300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>40500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>19800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,58 +2700,70 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>400</v>
+      </c>
+      <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1000</v>
       </c>
       <c r="I48" s="3">
         <v>900</v>
       </c>
       <c r="J48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K48" s="3">
+        <v>900</v>
+      </c>
+      <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2812,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,43 +2924,49 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>100</v>
-      </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
@@ -2741,8 +2980,14 @@
       <c r="R52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>96000</v>
+      </c>
+      <c r="F54" s="3">
         <v>82200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>89200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>98400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>108600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>116500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>128700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>136200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>23200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>28000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>25500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>31500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>37200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>41600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>21000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,63 +3140,71 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
+        <v>500</v>
+      </c>
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>2100</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>4</v>
@@ -2945,29 +3212,29 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>5500</v>
@@ -2979,140 +3246,158 @@
         <v>5500</v>
       </c>
       <c r="R58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="S58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="T58" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F59" s="3">
         <v>7800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>6200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F60" s="3">
         <v>9400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>9100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3600</v>
-      </c>
-      <c r="M60" s="3">
-        <v>9400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>9300</v>
       </c>
       <c r="O60" s="3">
         <v>9400</v>
       </c>
       <c r="P60" s="3">
+        <v>9300</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>9400</v>
+      </c>
+      <c r="R60" s="3">
         <v>8900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>8700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F61" s="3">
         <v>4900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3131,58 +3416,70 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>34900</v>
+      </c>
+      <c r="F66" s="3">
         <v>14400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>12200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>12800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>14200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>12600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>11600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>9300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3534,10 +3869,10 @@
         <v>5500</v>
       </c>
       <c r="M70" s="3">
-        <v>11800</v>
+        <v>5500</v>
       </c>
       <c r="N70" s="3">
-        <v>11800</v>
+        <v>5500</v>
       </c>
       <c r="O70" s="3">
         <v>11800</v>
@@ -3546,13 +3881,19 @@
         <v>11800</v>
       </c>
       <c r="Q70" s="3">
+        <v>11800</v>
+      </c>
+      <c r="R70" s="3">
+        <v>11800</v>
+      </c>
+      <c r="S70" s="3">
         <v>7100</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-227100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-214900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-204500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-186800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-176200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-165700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-154200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-139300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-130100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-704400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-699600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-695000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-688600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-682800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-677500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-671600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-665300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>55700</v>
+      </c>
+      <c r="F76" s="3">
         <v>62400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>71600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>80200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>88900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>98500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>111600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>119300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>14400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>18900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>10300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>15800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>20500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-17700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-10600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-10500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-11400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-14900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-9200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-79200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-5800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-5300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-6200</v>
       </c>
       <c r="R81" s="3">
         <v>-5900</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-5900</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,19 +4421,21 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -4050,13 +4447,13 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -4067,17 +4464,23 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-9000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-11400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-7200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-7600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-6600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-5800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-5700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-3700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-6900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,19 +4835,21 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4416,11 +4857,11 @@
       <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -4434,11 +4875,11 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4446,8 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-52100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1600</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-4200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>17100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>3500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>13000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2400</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5301,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>62400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>7100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>26100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-58100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-10600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-11400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-7400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-11700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-6500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>82100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-5600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>7200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-7000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>9900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-9500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>11100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>VIRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,116 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
@@ -778,8 +782,8 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -788,22 +792,25 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E12" s="3">
         <v>7600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,16 +1065,19 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1072,17 +1092,17 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>4000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>84500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1098,14 +1118,17 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,87 +1205,91 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E17" s="3">
         <v>12200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>78800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
+      <c r="E18" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-11300</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
@@ -1267,32 +1297,35 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-5700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,31 +1346,32 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
@@ -1345,55 +1379,58 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
       <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-11200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1416,17 +1453,20 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-5900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,10 +1474,10 @@
         <v>900</v>
       </c>
       <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1458,13 +1498,13 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1479,66 +1519,72 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-17700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-79200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-17700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-79200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-17700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-79200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,31 +2052,34 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
@@ -2017,88 +2087,94 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
       <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-17700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-79200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-17700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-79200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,82 +2400,86 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E41" s="3">
         <v>18100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>81600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>92200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>103600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>111000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>122700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>129200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>26000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E42" s="3">
         <v>62200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>54300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>53600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1600</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2405,38 +2495,41 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="3">
         <v>3400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>16400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2400</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2452,8 +2545,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,120 +2634,129 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>3200</v>
       </c>
       <c r="H45" s="3">
         <v>3200</v>
       </c>
       <c r="I45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7200</v>
-      </c>
-      <c r="R45" s="3">
-        <v>7700</v>
       </c>
       <c r="S45" s="3">
         <v>7700</v>
       </c>
       <c r="T45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="U45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E46" s="3">
         <v>83400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>93700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>79700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>86400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>95400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>105300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>113000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>125100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>132300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>27600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>24900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>36300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>40500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,64 +2811,70 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,46 +3047,49 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E54" s="3">
         <v>85800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>96000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>82200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>89200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>98400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>108600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>116500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>128700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>136200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,73 +3272,77 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>800</v>
       </c>
       <c r="R57" s="3">
         <v>800</v>
       </c>
       <c r="S57" s="3">
+        <v>800</v>
+      </c>
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3218,26 +3352,26 @@
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>5500</v>
@@ -3252,155 +3386,164 @@
         <v>5500</v>
       </c>
       <c r="T58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="U58" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E59" s="3">
         <v>7400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E60" s="3">
         <v>11700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E61" s="3">
         <v>22800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24900</v>
-      </c>
-      <c r="F61" s="3">
-        <v>4900</v>
       </c>
       <c r="G61" s="3">
         <v>4900</v>
       </c>
       <c r="H61" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I61" s="3">
         <v>4800</v>
       </c>
       <c r="J61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K61" s="3">
         <v>5000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3422,41 +3565,44 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
       <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
@@ -3464,22 +3610,25 @@
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E66" s="3">
         <v>34700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3600</v>
-      </c>
-      <c r="O66" s="3">
-        <v>9400</v>
       </c>
       <c r="P66" s="3">
         <v>9400</v>
       </c>
       <c r="Q66" s="3">
+        <v>9400</v>
+      </c>
+      <c r="R66" s="3">
         <v>9700</v>
-      </c>
-      <c r="R66" s="3">
-        <v>9300</v>
       </c>
       <c r="S66" s="3">
         <v>9300</v>
       </c>
       <c r="T66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="U66" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3875,7 +4043,7 @@
         <v>5500</v>
       </c>
       <c r="O70" s="3">
-        <v>11800</v>
+        <v>5500</v>
       </c>
       <c r="P70" s="3">
         <v>11800</v>
@@ -3887,13 +4055,16 @@
         <v>11800</v>
       </c>
       <c r="S70" s="3">
+        <v>11800</v>
+      </c>
+      <c r="T70" s="3">
         <v>7100</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-239600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-227100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-214900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-204500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-186800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-176200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-165700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-154200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-139300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-130100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-704400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-699600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-695000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-688600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-682800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-677500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-671600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-665300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E76" s="3">
         <v>45700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>55700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>62400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>71600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>80200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>88900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>98500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>111600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>119300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-17700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-79200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4435,10 +4634,10 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -4453,10 +4652,10 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -4470,8 +4669,8 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,13 +5057,14 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4855,16 +5076,16 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -4881,8 +5102,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-52100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>17100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>3500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>13000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2400</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,47 +5550,50 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>21400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>62400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>7100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5355,16 +5601,19 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>26100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-58100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>82100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>VIRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,8 +780,8 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
@@ -785,8 +789,8 @@
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -795,22 +799,25 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2100</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,58 +973,61 @@
         <v>8200</v>
       </c>
       <c r="E12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F12" s="3">
         <v>7600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,8 +1099,8 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1095,17 +1115,17 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>4000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>84500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1121,14 +1141,17 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1232,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1215,58 +1242,61 @@
         <v>12500</v>
       </c>
       <c r="E17" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F17" s="3">
         <v>12200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>78800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,58 +1304,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-12200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-5700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1359,22 +1393,22 @@
         <v>900</v>
       </c>
       <c r="F20" s="3">
+        <v>900</v>
+      </c>
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
@@ -1382,32 +1416,35 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
       <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,26 +1452,26 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-11200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-10400</v>
       </c>
       <c r="I21" s="3">
         <v>-10400</v>
       </c>
       <c r="J21" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-11200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1456,31 +1493,34 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-5900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-6100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
         <v>900</v>
       </c>
       <c r="F22" s="3">
+        <v>900</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1501,13 +1541,13 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1522,69 +1562,75 @@
         <v>100</v>
       </c>
       <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-17700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-79200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-79200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-17700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-79200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2067,22 +2137,22 @@
         <v>-900</v>
       </c>
       <c r="F32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
@@ -2090,91 +2160,97 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-79200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-79200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,88 +2487,92 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E41" s="3">
         <v>14300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>81600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>92200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>103600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>111000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>122700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>129200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>26000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>19700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E42" s="3">
         <v>58600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>62200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>54300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>53600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1600</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2498,29 +2588,32 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" s="3">
         <v>3400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>16400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>13100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2400</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2528,11 +2621,11 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2548,8 +2641,8 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,126 +2733,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>3200</v>
       </c>
       <c r="I45" s="3">
         <v>3200</v>
       </c>
       <c r="J45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7200</v>
-      </c>
-      <c r="S45" s="3">
-        <v>7700</v>
       </c>
       <c r="T45" s="3">
         <v>7700</v>
       </c>
       <c r="U45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="V45" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E46" s="3">
         <v>74600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>83400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>93700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>79700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>86400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>95400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>105300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>113000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>125100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>132300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>22100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>27600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>24900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>36300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>40500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>19800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>26400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,67 +2919,73 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,49 +3167,52 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>800</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E54" s="3">
         <v>76900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>85800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>96000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>82200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>89200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>98400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>108600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>116500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>128700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>136200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>41600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>21000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,79 +3403,83 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
-      </c>
-      <c r="R57" s="3">
-        <v>800</v>
       </c>
       <c r="S57" s="3">
         <v>800</v>
       </c>
       <c r="T57" s="3">
+        <v>800</v>
+      </c>
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E58" s="3">
         <v>4300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3355,26 +3489,26 @@
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>5500</v>
@@ -3389,164 +3523,173 @@
         <v>5500</v>
       </c>
       <c r="U58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="V58" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E59" s="3">
         <v>7700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E60" s="3">
         <v>15200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>20800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>24900</v>
-      </c>
-      <c r="G61" s="3">
-        <v>4900</v>
       </c>
       <c r="H61" s="3">
         <v>4900</v>
       </c>
       <c r="I61" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="J61" s="3">
         <v>4800</v>
       </c>
       <c r="K61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L61" s="3">
         <v>5000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3568,44 +3711,47 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
       <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
@@ -3613,22 +3759,25 @@
         <v>0</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E66" s="3">
         <v>36100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>34700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
-      </c>
-      <c r="P66" s="3">
-        <v>9400</v>
       </c>
       <c r="Q66" s="3">
         <v>9400</v>
       </c>
       <c r="R66" s="3">
+        <v>9400</v>
+      </c>
+      <c r="S66" s="3">
         <v>9700</v>
-      </c>
-      <c r="S66" s="3">
-        <v>9300</v>
       </c>
       <c r="T66" s="3">
         <v>9300</v>
       </c>
       <c r="U66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="V66" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4046,7 +4214,7 @@
         <v>5500</v>
       </c>
       <c r="P70" s="3">
-        <v>11800</v>
+        <v>5500</v>
       </c>
       <c r="Q70" s="3">
         <v>11800</v>
@@ -4058,13 +4226,16 @@
         <v>11800</v>
       </c>
       <c r="T70" s="3">
+        <v>11800</v>
+      </c>
+      <c r="U70" s="3">
         <v>7100</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-252200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-239600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-227100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-214900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-204500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-186800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-176200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-165700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-154200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-139300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-130100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-704400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-699600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-695000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-688600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-682800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-677500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-671600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-665300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E76" s="3">
         <v>35300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>55700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>62400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>71600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>80200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>88900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>98500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>111600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>119300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-79200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4637,10 +4836,10 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -4655,10 +4854,10 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -4672,8 +4871,8 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,17 +5278,18 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -5079,16 +5300,16 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5105,8 +5326,8 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E94" s="3">
         <v>4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-52100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-4200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>17100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>3500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>13000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2400</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,50 +5796,53 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>21400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>62400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>7100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5604,16 +5850,19 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>26100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>17200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-58100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>82100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>9900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11100</v>
       </c>
     </row>
